--- a/saved_result/mcmc_diag_2025-07-19.xlsx
+++ b/saved_result/mcmc_diag_2025-07-19.xlsx
@@ -458,53 +458,65 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-19_09:16</t>
+          <t>2025-07-24_12:59</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>10000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.3913</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-19_09:16</t>
+          <t>2025-07-24_12:59</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>20000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.2173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-19_09:16</t>
+          <t>2025-07-24_12:59</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>30000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.2383</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-19_09:16</t>
+          <t>2025-07-24_13:00</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>40000</v>
       </c>
       <c r="C5" t="n">
-        <v>4.3035</v>
+        <v>2.0478</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
